--- a/Documentation/Tableau de bord TD3 G3 .xlsx
+++ b/Documentation/Tableau de bord TD3 G3 .xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miki\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>Travail à faire</t>
   </si>
@@ -225,6 +225,9 @@
 EXTRAND</t>
   </si>
   <si>
+    <t>LIOTTARD</t>
+  </si>
+  <si>
     <t>Code partie admin</t>
   </si>
   <si>
@@ -252,22 +255,59 @@
     <t>Rendu fin de projet</t>
   </si>
   <si>
+    <t>AMILHAUD CAYRE</t>
+  </si>
+  <si>
+    <t>13h</t>
+  </si>
+  <si>
+    <t>14h</t>
+  </si>
+  <si>
     <t>Arrangement partie recherche</t>
   </si>
   <si>
-    <t>Debut code partie recherche</t>
-  </si>
-  <si>
-    <t>AMILLHAUD</t>
+    <t>Rédaction manuel d'utilisation</t>
+  </si>
+  <si>
+    <t>Total des heures passées</t>
+  </si>
+  <si>
+    <t>Début code partie recherche</t>
   </si>
   <si>
     <t>Fin code partie recherche</t>
   </si>
   <si>
-    <t>00h00</t>
-  </si>
-  <si>
-    <t>13h00</t>
+    <t>Fin redaction tableau de bord</t>
+  </si>
+  <si>
+    <t>9h00</t>
+  </si>
+  <si>
+    <t>AMILHAUD</t>
+  </si>
+  <si>
+    <t>Suite code partie favoris</t>
+  </si>
+  <si>
+    <t>AMILHAUD
+LIOTTARD</t>
+  </si>
+  <si>
+    <t>01h00</t>
+  </si>
+  <si>
+    <t>jalon1</t>
+  </si>
+  <si>
+    <t>jalon2</t>
+  </si>
+  <si>
+    <t>jalon3</t>
+  </si>
+  <si>
+    <t>jalon4</t>
   </si>
 </sst>
 </file>
@@ -298,7 +338,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,8 +351,14 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -612,40 +658,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -742,6 +772,60 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -818,6 +902,10 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF99FFCC"/>
+      <color rgb="FFCCFFCC"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -828,6 +916,1207 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>courbe</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> d'évolution du projet</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$M$22:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$M$23:$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$M$24:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="221507144"/>
+        <c:axId val="221502832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="221507144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="221502832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="221502832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="221507144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Pourcentage du projet réalisé dans le temps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>% projet réalisé</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$M$58:$M$61</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>jalon1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>jalon2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>jalon3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jalon4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Feuil1!$H$10,Feuil1!$H$24,Feuil1!$H$43,Feuil1!$H$65)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.12666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="324910064"/>
+        <c:axId val="324915944"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="31750" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="35000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$M$58:$M$61</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>jalon1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>jalon2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>jalon3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>jalon4</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Feuil1!$I$10,Feuil1!$I$24,Feuil1!$I$43,Feuil1!$I$65)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="4"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="324910064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324915944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="324915944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324910064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>630463</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>647095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Graphique 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>182164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>294082</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.43185</cdr:x>
+      <cdr:y>0.20264</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.57281</cdr:x>
+      <cdr:y>0.45886</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="ZoneTexte 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5317369" y="1046238"/>
+          <a:ext cx="1735667" cy="1322916"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>bleu = Heure passées</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>rouge = pourcentage du projet réalisé</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>vert = pourcentage total du projet réalisé</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -841,39 +2130,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -952,142 +2241,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -1096,10 +2409,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41:I41"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,1063 +2426,1239 @@
     <col min="7" max="7" width="18.5703125"/>
     <col min="8" max="8" width="10.7109375"/>
     <col min="9" max="9" width="15.140625"/>
-    <col min="10" max="10" width="15.28515625" style="10"/>
+    <col min="10" max="10" width="15.28515625" style="1"/>
     <col min="11" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="18"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="11">
         <v>42042</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="12">
         <v>15</v>
       </c>
-      <c r="J3" s="18"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="19" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="11">
         <v>42047</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="12">
         <v>5</v>
       </c>
-      <c r="J4" s="18"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="11">
         <v>42056</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="12">
         <v>2</v>
       </c>
-      <c r="J5" s="18"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="19" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="11">
         <v>42056</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="12">
         <v>16</v>
       </c>
-      <c r="J6" s="18"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="19" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="20">
+      <c r="E7" s="13"/>
+      <c r="F7" s="11">
         <v>42060</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="23"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="24" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="47">
         <f>SUM(I3:I6)</f>
         <v>38</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="25"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="27" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="49">
         <f>H8/300</f>
         <v>0.12666666666666668</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="49"/>
     </row>
     <row r="10" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="28" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="50">
         <f>H9</f>
         <v>0.12666666666666668</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="50"/>
     </row>
     <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="11">
         <v>42064</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="19" t="s">
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="11">
         <v>42066</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="19" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="11">
         <v>42071</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
+    <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="51">
         <v>42072</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="47">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="19" t="s">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
+    </row>
+    <row r="19" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20">
+      <c r="E19" s="10"/>
+      <c r="F19" s="11">
         <v>42074</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="19" t="s">
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+    </row>
+    <row r="20" spans="2:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="11">
         <v>42077</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="12">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="19" t="s">
+    <row r="21" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="45"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="20">
+      <c r="E21" s="13"/>
+      <c r="F21" s="11">
         <v>42081</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="24" t="s">
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+    </row>
+    <row r="22" spans="2:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="45"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="47">
         <f>SUM(I14:I20)</f>
         <v>37</v>
       </c>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="27" t="s">
+      <c r="I22" s="47"/>
+      <c r="M22">
+        <v>38</v>
+      </c>
+      <c r="N22">
+        <v>37</v>
+      </c>
+      <c r="O22">
+        <v>37</v>
+      </c>
+      <c r="P22">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="45"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="49">
         <f>H22/300</f>
         <v>0.12333333333333334</v>
       </c>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="28" t="s">
+      <c r="I23" s="49"/>
+      <c r="M23">
+        <v>12.67</v>
+      </c>
+      <c r="N23">
+        <v>12.33</v>
+      </c>
+      <c r="O23">
+        <v>12.33</v>
+      </c>
+      <c r="P23">
+        <v>22.33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="45"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="50">
         <f>H10+H23</f>
         <v>0.25</v>
       </c>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
-      <c r="C27" s="31" t="s">
+      <c r="I24" s="50"/>
+      <c r="M24">
+        <v>12.67</v>
+      </c>
+      <c r="N24">
+        <v>25</v>
+      </c>
+      <c r="O24">
+        <v>37.33</v>
+      </c>
+      <c r="P24">
+        <v>59.67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="21"/>
+      <c r="C27" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="31" t="s">
+      <c r="H27" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="32" t="s">
+      <c r="I27" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="25">
         <v>42088</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="35" t="s">
+      <c r="H28" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="37" t="s">
+    <row r="29" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="52"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="29">
         <v>42093</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="37" t="s">
+    <row r="30" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="29">
         <v>42096</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="37" t="s">
+    <row r="31" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="52"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="29">
         <v>42097</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="37" t="s">
+    <row r="32" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="52"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="29">
         <v>42128</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="8" t="s">
+      <c r="B33" s="52"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="51">
         <v>42099</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="47">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="7"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
     </row>
     <row r="35" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="37" t="s">
+      <c r="B35" s="52"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="38" t="s">
+      <c r="F35" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="39">
+      <c r="I35" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="37" t="s">
+      <c r="B36" s="52"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="38">
+      <c r="E36" s="28"/>
+      <c r="F36" s="29">
         <v>42102</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
     </row>
     <row r="37" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="37" t="s">
+      <c r="B37" s="52"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="37" t="s">
+      <c r="E37" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="40" t="s">
+      <c r="G37" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="H37" s="40" t="s">
+      <c r="H37" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="41">
+      <c r="I37" s="32">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="37" t="s">
+    <row r="38" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="52"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="42">
+      <c r="E38" s="28"/>
+      <c r="F38" s="33">
         <v>42116</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
     </row>
     <row r="39" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="37" t="s">
+      <c r="B39" s="52"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="37" t="s">
+      <c r="E39" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="38">
+      <c r="F39" s="29">
         <v>42099</v>
       </c>
-      <c r="G39" s="43" t="s">
+      <c r="G39" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="43" t="s">
+      <c r="H39" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="44">
+      <c r="I39" s="35">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="37" t="s">
+      <c r="B40" s="52"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="38">
+      <c r="E40" s="36"/>
+      <c r="F40" s="29">
         <v>42130</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
     </row>
     <row r="41" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="24" t="s">
+      <c r="B41" s="52"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="7">
-        <f>SUM(I28:I35,I37,I39)</f>
-        <v>45</v>
-      </c>
-      <c r="I41" s="7"/>
+      <c r="H41" s="47">
+        <f>SUM(I28:I37)</f>
+        <v>37</v>
+      </c>
+      <c r="I41" s="47"/>
     </row>
     <row r="42" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="27" t="s">
+      <c r="B42" s="52"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="49">
         <f>H41/300</f>
-        <v>0.15</v>
-      </c>
-      <c r="I42" s="5"/>
+        <v>0.12333333333333334</v>
+      </c>
+      <c r="I42" s="49"/>
     </row>
     <row r="43" spans="2:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="28" t="s">
+      <c r="B43" s="52"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="50">
         <f>H24+H42</f>
-        <v>0.4</v>
-      </c>
-      <c r="I43" s="4"/>
+        <v>0.37333333333333335</v>
+      </c>
+      <c r="I43" s="50"/>
     </row>
     <row r="44" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="15"/>
-      <c r="C46" s="16" t="s">
+      <c r="B46" s="6"/>
+      <c r="C46" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H46" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="I46" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="9" t="s">
+    <row r="47" spans="2:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="37" t="s">
+      <c r="D47" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E47" s="37" t="s">
+      <c r="E47" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="38">
+      <c r="F47" s="29">
         <v>42132</v>
       </c>
-      <c r="G47" s="37" t="s">
+      <c r="G47" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="H47" s="37" t="s">
+      <c r="H47" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I47" s="46">
+      <c r="I47" s="37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="45"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" s="40">
+        <v>42132</v>
+      </c>
+      <c r="G48" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="I48" s="41">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="9"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="37" t="s">
+    <row r="49" spans="2:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="45"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="E49" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F49" s="29">
         <v>42154</v>
       </c>
-      <c r="G48" s="37" t="s">
+      <c r="G49" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="H48" s="37" t="s">
+      <c r="H49" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I48" s="46">
+      <c r="I49" s="37">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="9"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="37" t="s">
+    <row r="50" spans="2:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="45"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50" s="40">
+        <v>42156</v>
+      </c>
+      <c r="G50" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="I50" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="45"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="29">
+        <v>42162</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I51" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="45"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" s="29">
+        <v>42162</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I52" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="45"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="29"/>
+      <c r="G53" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="45"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="37"/>
+    </row>
+    <row r="55" spans="2:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="45"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="45"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="E49" s="37" t="s">
+      <c r="F56" s="51">
+        <v>42164</v>
+      </c>
+      <c r="G56" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F49" s="38">
-        <v>42156</v>
-      </c>
-      <c r="G49" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="H49" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49" s="46">
+      <c r="H56" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="I56" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="45"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="47"/>
+    </row>
+    <row r="58" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="45"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="29">
+        <v>42165</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="38">
+        <v>5</v>
+      </c>
+      <c r="M58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="45"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" s="29">
+        <v>42286</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="37">
+        <v>6</v>
+      </c>
+      <c r="M59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="45"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="29">
+        <v>42164</v>
+      </c>
+      <c r="G60" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="37">
+        <v>2</v>
+      </c>
+      <c r="M60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="45"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61" s="40">
+        <v>42165</v>
+      </c>
+      <c r="G61" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="H61" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="41">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="9"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="F50" s="38">
-        <v>42161</v>
-      </c>
-      <c r="G50" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="I50" s="46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="9"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="37" t="s">
+      <c r="M61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="45"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" s="38">
-        <v>42162</v>
-      </c>
-      <c r="G51" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="I51" s="46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="9"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F52" s="38">
-        <v>42159</v>
-      </c>
-      <c r="G52" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H52" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" s="46">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="9"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F53" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="G53" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="46">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="9"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="38">
+      <c r="E62" s="36"/>
+      <c r="F62" s="29">
         <v>42165</v>
       </c>
-      <c r="G54" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="H54" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B55" s="9"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="E55" s="37"/>
-      <c r="F55" s="38">
-        <v>42286</v>
-      </c>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="46"/>
-    </row>
-    <row r="56" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="9"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E56" s="45"/>
-      <c r="F56" s="38">
-        <v>42165</v>
-      </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-    </row>
-    <row r="57" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B57" s="9"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="24" t="s">
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+    </row>
+    <row r="63" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B63" s="45"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H57" s="7">
-        <f>SUM(I47:I55)</f>
-        <v>74</v>
-      </c>
-      <c r="I57" s="7"/>
-    </row>
-    <row r="58" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B58" s="9"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="27" t="s">
+      <c r="H63" s="47">
+        <f>SUM(I47:I61)</f>
+        <v>104</v>
+      </c>
+      <c r="I63" s="47"/>
+    </row>
+    <row r="64" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B64" s="45"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="5">
-        <f>H57/300</f>
-        <v>0.24666666666666667</v>
-      </c>
-      <c r="I58" s="5"/>
-    </row>
-    <row r="59" spans="2:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="9"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="28" t="s">
+      <c r="H64" s="49">
+        <f>H63/300</f>
+        <v>0.34666666666666668</v>
+      </c>
+      <c r="I64" s="49"/>
+    </row>
+    <row r="65" spans="2:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="45"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H59" s="4">
-        <f>H43+H58</f>
-        <v>0.64666666666666672</v>
-      </c>
-      <c r="I59" s="4"/>
+      <c r="H65" s="50">
+        <f>H43+H64</f>
+        <v>0.72</v>
+      </c>
+      <c r="I65" s="50"/>
+    </row>
+    <row r="67" spans="2:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G67" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H67" s="44">
+        <f>H63+H41+H22+H8</f>
+        <v>216</v>
+      </c>
+      <c r="I67" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="H42:I42"/>
+  <mergeCells count="51">
     <mergeCell ref="H43:I43"/>
-    <mergeCell ref="B47:B59"/>
-    <mergeCell ref="C47:C55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="C57:F59"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B47:B65"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="C63:F65"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="C47:C62"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="B28:B43"/>
@@ -2185,17 +3674,13 @@
     <mergeCell ref="G40:I40"/>
     <mergeCell ref="C41:F43"/>
     <mergeCell ref="H41:I41"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H42:I42"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="C22:F24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H67:I67"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="D5:D6"/>
@@ -2204,9 +3689,17 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="C22:F24"/>
+    <mergeCell ref="G17:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2215,15 +3708,35 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1025" width="10.7109375"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
